--- a/iem-nodejs/Uploads/sample.xlsx
+++ b/iem-nodejs/Uploads/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">Question1 </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Q_no</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -402,72 +405,81 @@
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
